--- a/数据整理/stocks/A股/创业板/300203-聚光科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300203-聚光科技.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,12 +22,18 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
@@ -37,10 +43,13 @@
     <t>金鹰中小盘精选混合</t>
   </si>
   <si>
+    <t>3.55</t>
+  </si>
+  <si>
     <t>77.81</t>
   </si>
   <si>
-    <t>3.55</t>
+    <t>0.1260</t>
   </si>
 </sst>
 </file>
@@ -398,13 +407,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -420,24 +429,36 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2">
         <v>10</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300203-聚光科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300203-聚光科技.xlsx
@@ -1,87 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>162102</t>
-  </si>
-  <si>
-    <t>金鹰中小盘精选混合</t>
-  </si>
-  <si>
-    <t>3.55</t>
-  </si>
-  <si>
-    <t>77.81</t>
-  </si>
-  <si>
-    <t>0.1260</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -104,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -406,63 +446,757 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>162102</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金鹰中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>77.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1260</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519692</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7908</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010094</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德产业机遇混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4261</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519694</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3113</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519773</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银施罗德数据产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.44</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>73.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1878</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160918</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成中小盘混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>64.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3991</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501030</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富中证环境治理指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.23</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2752</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501096</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国联安科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>51.01</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1944</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008274</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成行业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>78.33</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1865</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>168207</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中融创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1339</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501031</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富中证环境治理指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1127</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>164908</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>交银施罗德中证环境治理指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0951</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002945</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成盛世精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>75.15</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0792</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>164401</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>前海开源中证健康产业指数</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008275</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成行业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>78.33</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>960016</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>交银成长混合H</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011159</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成中小盘混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>64.59</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300203-聚光科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300203-聚光科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1199,4 +1200,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.29</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300203-聚光科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300203-聚光科技.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1208,7 +1209,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1219,17 +1220,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1239,14 +1260,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.29</v>
+          <t>519692</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6097</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1255,13 +1298,993 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>519694</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8548</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010094</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德产业机遇混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4200</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519773</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银施罗德数据产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3526</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001387</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1179</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519732</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银定期支付双息平衡混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>50.41</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>68.34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0183</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>168207</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中融创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2570</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007775</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1876</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001701</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中融产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1523</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004558</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇安丰裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1071</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010613</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0999</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010697</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0997</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005599</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇安量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0680</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001388</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>160921</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成多策略混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>23.36</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005600</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇安量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>960016</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>交银成长混合H</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006240</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005569</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中融智选红利股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010614</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006241</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007776</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010698</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005570</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中融智选红利股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004559</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇安丰裕灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>25</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.29</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.13</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300203-聚光科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300203-聚光科技.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2215,7 +2216,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2226,17 +2227,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2246,14 +2267,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>25</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.54</v>
+          <t>519692</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0490</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -2262,14 +2305,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.29</v>
+          <t>960016</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银成长混合H</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0490</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -2278,13 +2343,1047 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>519772</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银新生活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>54.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7140</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519694</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4139</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519773</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银施罗德数据产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2108</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010094</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银施罗德产业机遇混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18.53</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1655</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519732</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银定期支付双息平衡混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>40.83</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>67.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8411</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010654</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘医药创新混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.86</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7922</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501093</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏翔阳两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>78.10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3249</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010655</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘医药创新混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2351</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>168207</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中融创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2025</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001387</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1715</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004905</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰柏瑞生物医药灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1581</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001701</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中融产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1485</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005805</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1371</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004784</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商稳健优选股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1328</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010697</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0904</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001388</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010613</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007775</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006240</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010031</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华泰柏瑞生物医药灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010614</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010698</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006241</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011453</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007776</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>27</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.95</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>25</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.54</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.29</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.13</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300203-聚光科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300203-聚光科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3298,7 +3299,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3309,17 +3310,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3329,14 +3350,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>27</v>
-      </c>
-      <c r="D2" t="n">
-        <v>12.95</v>
+          <t>519692</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1142</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -3345,14 +3388,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>25</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10.54</v>
+          <t>519772</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银新生活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>56.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9567</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -3361,14 +3426,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>16</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.29</v>
+          <t>519694</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4593</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -3377,13 +3464,1025 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>010094</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银施罗德产业机遇混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.57</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3386</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519773</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银施罗德数据产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.26</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3074</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519732</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银定期支付双息平衡混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>42.91</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>64.07</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8668</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010654</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘医药创新混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.09</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7484</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001387</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2237</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010655</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘医药创新混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2216</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>168207</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中融创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2090</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004905</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞生物医药灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1991</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005805</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1834</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001701</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中融产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1676</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010697</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0932</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013916</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中融成长先锋一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.89</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0794</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001388</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002189</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>农银汇理国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006240</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006241</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011453</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007775</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>960016</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>交银成长混合H</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014549</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>交银施罗德数据产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010031</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华泰柏瑞生物医药灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010698</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007776</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013917</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中融成长先锋一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.89</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>27</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>27</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.95</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>25</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.54</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.29</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.13</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300203-聚光科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300203-聚光科技.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="D2" t="n">
-        <v>11.39</v>
+        <v>19.53</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>27</v>
       </c>
       <c r="D3" t="n">
-        <v>12.95</v>
+        <v>11.39</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="n">
-        <v>10.54</v>
+        <v>12.95</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>7.29</v>
+        <v>10.54</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>16</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7.29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -571,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -622,32 +639,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519692</t>
+          <t>519772</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>交银成长混合A</t>
+          <t>交银新生活力灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>25.29</t>
+          <t>49.60</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>85.49</t>
+          <t>83.55</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.36</t>
+          <t>5.04</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.1142</t>
+          <t>2.4998</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -660,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>519772</t>
+          <t>519692</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>交银新生活力灵活配置混合</t>
+          <t>交银成长混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>56.88</t>
+          <t>23.45</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>80.57</t>
+          <t>76.71</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>9.92</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.9567</t>
+          <t>2.3262</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -698,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>519694</t>
+          <t>010094</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>交银蓝筹混合</t>
+          <t>交银施罗德产业机遇混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>17.29</t>
+          <t>17.37</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>86.74</t>
+          <t>77.22</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.44</t>
+          <t>10.43</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.4593</t>
+          <t>1.8117</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -736,36 +753,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010094</t>
+          <t>519773</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>交银施罗德产业机遇混合</t>
+          <t>交银施罗德数据产业灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>19.57</t>
+          <t>17.11</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>87.89</t>
+          <t>77.28</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.84</t>
+          <t>10.47</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.3386</t>
+          <t>1.7914</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -774,36 +791,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>519773</t>
+          <t>519694</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>交银施罗德数据产业灵活配置混合</t>
+          <t>交银蓝筹混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>18.26</t>
+          <t>16.10</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>88.28</t>
+          <t>78.09</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.16</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.3074</t>
+          <t>1.6100</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -812,36 +829,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>519732</t>
+          <t>470006</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>交银定期支付双息平衡混合</t>
+          <t>汇添富医药保健混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>42.91</t>
+          <t>46.47</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>64.07</t>
+          <t>84.46</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.8668</t>
+          <t>1.4824</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -850,36 +867,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010654</t>
+          <t>010963</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>天弘医药创新混合A</t>
+          <t>信澳周期动力混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>12.09</t>
+          <t>39.77</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>90.26</t>
+          <t>89.47</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6.19</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.7484</t>
+          <t>1.1454</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -888,32 +905,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001387</t>
+          <t>009664</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中融新经济灵活配置混合A</t>
+          <t>汇添富医疗积极成长一年持有期混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>29.13</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>89.35</t>
+          <t>66.68</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.67</t>
+          <t>3.78</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.2237</t>
+          <t>1.1011</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -926,36 +943,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010655</t>
+          <t>110023</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>天弘医药创新混合C</t>
+          <t>易方达医疗保健行业混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>33.04</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>90.26</t>
+          <t>90.58</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>6.19</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.2216</t>
+          <t>1.0540</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -964,36 +981,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>168207</t>
+          <t>519732</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中融创业板两年定期开放混合</t>
+          <t>交银定期支付双息平衡混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>40.09</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>89.66</t>
+          <t>66.00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5.06</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.2090</t>
+          <t>0.8900</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -1002,36 +1019,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>004905</t>
+          <t>010654</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华泰柏瑞生物医药灵活配置混合A</t>
+          <t>天弘医药创新混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>5.53</t>
+          <t>7.39</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>91.35</t>
+          <t>82.96</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>5.44</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.1991</t>
+          <t>0.4020</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -1040,36 +1057,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>005805</t>
+          <t>001701</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华泰柏瑞医疗健康混合A</t>
+          <t>中融产业升级灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>5.27</t>
+          <t>6.14</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>93.81</t>
+          <t>88.99</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>6.08</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.1834</t>
+          <t>0.3733</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -1078,36 +1095,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>001701</t>
+          <t>015455</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中融产业升级灵活配置混合</t>
+          <t>信澳周期动力混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>12.28</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>91.74</t>
+          <t>89.47</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.96</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.1676</t>
+          <t>0.3537</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -1116,36 +1133,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>010697</t>
+          <t>012523</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中融行业先锋6个月持有期混合A</t>
+          <t>中融高质量成长混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>84.56</t>
+          <t>80.24</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>8.17</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0932</t>
+          <t>0.3358</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -1154,36 +1171,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>013916</t>
+          <t>001388</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>中融成长先锋一年持有混合A</t>
+          <t>中融新经济灵活配置混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>4.12</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>86.89</t>
+          <t>89.20</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0794</t>
+          <t>0.2451</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -1192,36 +1209,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>001388</t>
+          <t>005421</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>中融新经济灵活配置混合C</t>
+          <t>中欧嘉泽灵活配置混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>6.99</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>89.35</t>
+          <t>83.96</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>4.67</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0658</t>
+          <t>0.2230</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -1230,36 +1247,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>002189</t>
+          <t>001387</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>农银汇理国企改革灵活配置混合</t>
+          <t>中融新经济灵活配置混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>3.73</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>86.59</t>
+          <t>89.20</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0364</t>
+          <t>0.2219</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -1268,36 +1285,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>006240</t>
+          <t>010655</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>中融医疗健康精选混合A</t>
+          <t>天弘医药创新混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>84.23</t>
+          <t>82.96</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>5.55</t>
+          <t>5.44</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0211</t>
+          <t>0.1784</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -1306,36 +1323,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>006241</t>
+          <t>009381</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>中融医疗健康精选混合C</t>
+          <t>汇安核心资产混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>4.04</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>84.23</t>
+          <t>93.19</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>5.55</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0183</t>
+          <t>0.1511</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -1344,32 +1361,32 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>011453</t>
+          <t>009665</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>华泰柏瑞医疗健康混合C</t>
+          <t>汇添富医疗积极成长一年持有期混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>3.63</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>93.81</t>
+          <t>66.68</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>3.78</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0174</t>
+          <t>0.1372</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -1382,36 +1399,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>007775</t>
+          <t>014329</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>汇安量化先锋混合A</t>
+          <t>中融优势产业混合A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>94.55</t>
+          <t>69.84</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>8.55</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0144</t>
+          <t>0.1265</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1420,32 +1437,32 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>960016</t>
+          <t>007718</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>交银成长混合H</t>
+          <t>中银创新医疗混合A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>85.49</t>
+          <t>92.35</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>8.36</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0142</t>
+          <t>0.1193</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -1458,36 +1475,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>014549</t>
+          <t>013916</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>交银施罗德数据产业灵活配置混合C</t>
+          <t>中融成长先锋一年持有混合A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>88.28</t>
+          <t>88.19</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>7.16</t>
+          <t>4.89</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0115</t>
+          <t>0.1051</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -1496,36 +1513,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>010031</t>
+          <t>010697</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>华泰柏瑞生物医药灵活配置混合C</t>
+          <t>中融行业先锋6个月持有期混合A</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>91.35</t>
+          <t>84.00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0090</t>
+          <t>0.0994</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1534,36 +1551,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>010698</t>
+          <t>010016</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>中融行业先锋6个月持有期混合C</t>
+          <t>华夏科技前沿6个月定期开放混合A</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>84.56</t>
+          <t>84.35</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0043</t>
+          <t>0.0904</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
@@ -1572,36 +1589,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>007776</t>
+          <t>501030</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>汇安量化先锋混合C</t>
+          <t>汇添富中证环境治理指数（LOF）A</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>94.55</t>
+          <t>92.74</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.0042</t>
+          <t>0.0824</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -1610,36 +1627,984 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>168207</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中融创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0691</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003032</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>平安医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>84.53</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0645</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006223</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>交银施罗德创新成长混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.18</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014549</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>交银施罗德数据产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>77.28</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>10.47</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002189</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>农银汇理国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>85.55</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>164908</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>交银施罗德中证环境治理指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010017</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华夏科技前沿6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>84.35</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>501031</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇添富中证环境治理指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>014737</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>创金合信专精特新股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006241</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>164401</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>前海开源中证健康产业指数</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>014736</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>创金合信专精特新股票A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005599</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>汇安量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>960016</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>交银成长混合H</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>76.71</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012524</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中融高质量成长混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>80.24</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>014330</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中融优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>69.84</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>007775</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010500</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010698</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>007776</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
           <t>013917</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>中融成长先锋一年持有混合C</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>86.89</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>006240</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009382</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>汇安核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
         <is>
           <t>0.0026</t>
         </is>
       </c>
-      <c r="H28" t="n">
+      <c r="H50" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>013413</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>交银施罗德中证环境治理指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005600</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>汇安量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>960015</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>汇添富医药保健混合O</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1714,26 +2679,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>23.39</t>
+          <t>25.29</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>82.72</t>
+          <t>85.49</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.76</t>
+          <t>8.36</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.0490</t>
+          <t>2.1142</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1742,36 +2707,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>960016</t>
+          <t>519772</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>交银成长混合H</t>
+          <t>交银新生活力灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>23.39</t>
+          <t>56.88</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>82.72</t>
+          <t>80.57</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.76</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.0490</t>
+          <t>1.9567</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1780,36 +2745,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>519772</t>
+          <t>519694</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>交银新生活力灵活配置混合</t>
+          <t>交银蓝筹混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>54.07</t>
+          <t>17.29</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>86.33</t>
+          <t>86.74</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.17</t>
+          <t>8.44</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.7140</t>
+          <t>1.4593</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1818,36 +2783,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>519694</t>
+          <t>010094</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>交银蓝筹混合</t>
+          <t>交银施罗德产业机遇混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>16.14</t>
+          <t>19.57</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>82.45</t>
+          <t>87.89</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>8.76</t>
+          <t>6.84</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.4139</t>
+          <t>1.3386</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1866,26 +2831,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>19.72</t>
+          <t>18.26</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>86.28</t>
+          <t>88.28</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.14</t>
+          <t>7.16</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.2108</t>
+          <t>1.3074</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1894,36 +2859,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010094</t>
+          <t>519732</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>交银施罗德产业机遇混合</t>
+          <t>交银定期支付双息平衡混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>18.53</t>
+          <t>42.91</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>85.59</t>
+          <t>64.07</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>6.29</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.1655</t>
+          <t>0.8668</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1932,36 +2897,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>519732</t>
+          <t>010654</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>交银定期支付双息平衡混合</t>
+          <t>天弘医药创新混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>40.83</t>
+          <t>12.09</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>67.67</t>
+          <t>90.26</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>6.19</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.8411</t>
+          <t>0.7484</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -1970,36 +2935,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010654</t>
+          <t>001387</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>天弘医药创新混合A</t>
+          <t>中融新经济灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>11.86</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>87.22</t>
+          <t>89.35</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>6.68</t>
+          <t>4.67</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.7922</t>
+          <t>0.2237</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -2008,36 +2973,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>501093</t>
+          <t>010655</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华夏翔阳两年定期开放混合</t>
+          <t>天弘医药创新混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>7.35</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>78.10</t>
+          <t>90.26</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>6.19</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.3249</t>
+          <t>0.2216</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -2046,36 +3011,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>010655</t>
+          <t>168207</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>天弘医药创新混合C</t>
+          <t>中融创业板两年定期开放混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>87.22</t>
+          <t>89.66</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>6.68</t>
+          <t>5.06</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.2351</t>
+          <t>0.2090</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -2084,36 +3049,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>168207</t>
+          <t>004905</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中融创业板两年定期开放混合</t>
+          <t>华泰柏瑞生物医药灵活配置混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>5.53</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>88.46</t>
+          <t>91.35</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>5.26</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.2025</t>
+          <t>0.1991</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -2122,36 +3087,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>001387</t>
+          <t>005805</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中融新经济灵活配置混合A</t>
+          <t>华泰柏瑞医疗健康混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>5.27</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>93.13</t>
+          <t>93.81</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>5.12</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.1715</t>
+          <t>0.1834</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -2160,36 +3125,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>004905</t>
+          <t>001701</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>华泰柏瑞生物医药灵活配置混合A</t>
+          <t>中融产业升级灵活配置混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>5.73</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>87.55</t>
+          <t>91.74</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.1581</t>
+          <t>0.1676</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -2198,36 +3163,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>001701</t>
+          <t>010697</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中融产业升级灵活配置混合</t>
+          <t>中融行业先锋6个月持有期混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>92.91</t>
+          <t>84.56</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>5.23</t>
+          <t>4.83</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.1485</t>
+          <t>0.0932</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -2236,36 +3201,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>005805</t>
+          <t>013916</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华泰柏瑞医疗健康混合A</t>
+          <t>中融成长先锋一年持有混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4.88</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>88.16</t>
+          <t>86.89</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.1371</t>
+          <t>0.0794</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -2274,36 +3239,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>004784</t>
+          <t>001388</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>招商稳健优选股票</t>
+          <t>中融新经济灵活配置混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4.90</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>85.49</t>
+          <t>89.35</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>4.67</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.1328</t>
+          <t>0.0658</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -2312,36 +3277,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>010697</t>
+          <t>002189</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>中融行业先锋6个月持有期混合A</t>
+          <t>农银汇理国企改革灵活配置混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>89.23</t>
+          <t>86.59</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>5.05</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0904</t>
+          <t>0.0364</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -2350,36 +3315,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>001388</t>
+          <t>006240</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>中融新经济灵活配置混合C</t>
+          <t>中融医疗健康精选混合A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>93.13</t>
+          <t>84.23</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>5.12</t>
+          <t>5.55</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0369</t>
+          <t>0.0211</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -2388,36 +3353,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>010613</t>
+          <t>006241</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>中融产业趋势一年定期开放混合A</t>
+          <t>中融医疗健康精选混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>87.17</t>
+          <t>84.23</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>5.55</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0302</t>
+          <t>0.0183</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -2426,36 +3391,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>007775</t>
+          <t>011453</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>汇安量化先锋混合A</t>
+          <t>华泰柏瑞医疗健康混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>93.81</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0116</t>
+          <t>0.0174</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -2464,36 +3429,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>006240</t>
+          <t>007775</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>中融医疗健康精选混合A</t>
+          <t>汇安量化先锋混合A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>94.05</t>
+          <t>94.55</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0070</t>
+          <t>0.0144</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -2502,36 +3467,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>010031</t>
+          <t>960016</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>华泰柏瑞生物医药灵活配置混合C</t>
+          <t>交银成长混合H</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>87.55</t>
+          <t>85.49</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>8.36</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0069</t>
+          <t>0.0142</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -2540,36 +3505,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>010614</t>
+          <t>014549</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>中融产业趋势一年定期开放混合C</t>
+          <t>交银施罗德数据产业灵活配置混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>87.17</t>
+          <t>88.28</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>7.16</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0048</t>
+          <t>0.0115</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -2578,36 +3543,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>010698</t>
+          <t>010031</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>中融行业先锋6个月持有期混合C</t>
+          <t>华泰柏瑞生物医药灵活配置混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>89.23</t>
+          <t>91.35</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>5.05</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0045</t>
+          <t>0.0090</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -2616,36 +3581,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>006241</t>
+          <t>010698</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>中融医疗健康精选混合C</t>
+          <t>中融行业先锋6个月持有期混合C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>94.05</t>
+          <t>84.56</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>4.83</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0040</t>
+          <t>0.0043</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
@@ -2654,36 +3619,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>011453</t>
+          <t>007776</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>华泰柏瑞医疗健康混合C</t>
+          <t>汇安量化先锋混合C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>88.16</t>
+          <t>94.55</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.0039</t>
+          <t>0.0042</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
@@ -2692,36 +3657,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>007776</t>
+          <t>013917</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>汇安量化先锋混合C</t>
+          <t>中融成长先锋一年持有混合C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>86.89</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.0033</t>
+          <t>0.0026</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2730,6 +3695,1088 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519692</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0490</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>960016</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银成长混合H</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0490</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519772</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银新生活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>54.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7140</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519694</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4139</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519773</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银施罗德数据产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2108</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010094</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银施罗德产业机遇混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18.53</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1655</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519732</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银定期支付双息平衡混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>40.83</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>67.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8411</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010654</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘医药创新混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.86</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7922</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501093</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏翔阳两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>78.10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3249</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010655</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘医药创新混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2351</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>168207</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中融创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2025</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001387</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1715</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004905</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰柏瑞生物医药灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1581</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001701</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中融产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1485</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005805</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1371</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004784</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商稳健优选股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1328</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010697</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0904</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001388</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010613</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007775</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006240</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010031</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华泰柏瑞生物医药灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010614</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010698</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006241</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011453</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007776</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3735,7 +5782,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4397,7 +6444,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300203-聚光科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300203-聚光科技.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D2" t="n">
-        <v>19.53</v>
+        <v>28.42</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="D3" t="n">
-        <v>11.39</v>
+        <v>19.53</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>27</v>
       </c>
       <c r="D4" t="n">
-        <v>12.95</v>
+        <v>11.39</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="n">
-        <v>10.54</v>
+        <v>12.95</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D6" t="n">
-        <v>7.29</v>
+        <v>10.54</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>16</v>
+      </c>
+      <c r="D7" t="n">
+        <v>7.29</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -583,6 +600,2488 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H65"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006113</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富创新医药主题混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>88.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.2478</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519692</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2597</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>470006</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富医药保健混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>47.77</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9968</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010347</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>农银汇理策略收益一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>47.85</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7370</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010094</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银施罗德产业机遇混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.65</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.76</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6600</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519694</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.14</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5523</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009664</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>29.15</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>77.39</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5041</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519773</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银施罗德数据产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.79</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.66</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.3556</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010608</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量领先混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>21.15</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.2753</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>110023</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达医疗保健行业混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>46.14</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1627</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>660010</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>农银策略精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>30.03</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.48</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0480</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010963</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>信澳周期动力混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9781</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>460005</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰柏瑞价值增长混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7791</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519732</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>交银定期支付双息平衡混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>39.61</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>69.68</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7288</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001701</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中融产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4915</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001388</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4706</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519690</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>交银稳健配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>15.96</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>79.31</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4581</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>517160</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方中证长江保护主题ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>16.77</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4142</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>517330</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达中证长江保护主题ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>16.47</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4068</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000127</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>农银行业领先混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>81.24</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3216</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004905</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华泰柏瑞生物医药混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>82.98</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2950</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005805</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>80.25</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2941</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012523</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中融高质量成长混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>82.78</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2568</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014549</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>交银施罗德数据产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.66</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2389</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005689</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2363</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001387</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2241</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>015455</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>信澳周期动力混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2070</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008819</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>农银汇理策略趋势混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>81.50</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1915</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009665</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>77.39</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1868</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001759</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>嘉实成长增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1802</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010609</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量领先混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1345</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>014737</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>创金合信专精特新股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1202</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>020015</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国泰区位优势混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>84.45</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1179</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>013916</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中融成长先锋一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0983</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004784</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>招商稳健优选股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0799</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010697</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0739</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>501030</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>汇添富中证环境治理指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0613</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>168207</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中融创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>84.06</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0601</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>003032</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>平安医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>014736</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>创金合信专精特新股票A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001601</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>78.41</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>015594</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国泰区位优势混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>84.45</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011453</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>80.25</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>002189</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>农银汇理国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>82.49</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>164908</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>交银施罗德中证环境治理指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>501031</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>汇添富中证环境治理指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005293</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>诺德新旺灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005108</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>圆信永丰双利优选定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>164401</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>前海开源中证健康产业指数</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001965</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>84.58</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>960016</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>交银成长混合H</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>80.90</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010031</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华泰柏瑞生物医药混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>82.98</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010159</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>005949</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>鑫元行业轮动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>67.42</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>006274</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>圆信永丰医药健康混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>012524</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中融高质量成长混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>82.78</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010037</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华泰柏瑞价值增长混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010698</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>013917</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中融成长先锋一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001966</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>84.58</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>013413</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>交银施罗德中证环境治理指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>960015</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>汇添富医药保健混合O</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>005950</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>鑫元行业轮动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>67.42</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001602</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>78.41</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2605,1088 +5104,6 @@
       </c>
       <c r="H53" t="n">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>519692</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>交银成长混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>25.29</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>85.49</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>8.36</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.1142</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>519772</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>交银新生活力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>56.88</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>80.57</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.9567</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>519694</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>交银蓝筹混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>17.29</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>86.74</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>8.44</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.4593</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>010094</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>交银施罗德产业机遇混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>19.57</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>87.89</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.84</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.3386</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>519773</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>交银施罗德数据产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>18.26</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>88.28</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7.16</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.3074</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>519732</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>交银定期支付双息平衡混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>42.91</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>64.07</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.8668</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>010654</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>天弘医药创新混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>12.09</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>90.26</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6.19</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.7484</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001387</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中融新经济灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>89.35</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.2237</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>010655</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>天弘医药创新混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>90.26</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>6.19</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.2216</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>168207</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>中融创业板两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>89.66</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>5.06</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.2090</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>004905</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>华泰柏瑞生物医药灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>5.53</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>91.35</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1991</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>005805</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>华泰柏瑞医疗健康混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>5.27</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>93.81</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1834</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>001701</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>中融产业升级灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>91.74</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1676</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>010697</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>中融行业先锋6个月持有期混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>84.56</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.83</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0932</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>013916</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>中融成长先锋一年持有混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>86.89</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0794</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>001388</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>中融新经济灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>89.35</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0658</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>002189</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>农银汇理国企改革灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>86.59</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0364</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>006240</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>中融医疗健康精选混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>84.23</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>5.55</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0211</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>006241</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>中融医疗健康精选混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>84.23</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>5.55</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0183</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>011453</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>华泰柏瑞医疗健康混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>93.81</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0174</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>007775</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>汇安量化先锋混合A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>94.55</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0144</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>960016</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>交银成长混合H</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>85.49</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>8.36</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0142</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>014549</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>交银施罗德数据产业灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>88.28</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>7.16</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0115</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>010031</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>华泰柏瑞生物医药灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>91.35</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0090</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>010698</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>中融行业先锋6个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>84.56</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>4.83</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0043</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>007776</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>汇安量化先锋混合C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>94.55</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0042</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>013917</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>中融成长先锋一年持有混合C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>86.89</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0026</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -3761,26 +5178,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>23.39</t>
+          <t>25.29</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>82.72</t>
+          <t>85.49</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.76</t>
+          <t>8.36</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.0490</t>
+          <t>2.1142</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -3789,36 +5206,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>960016</t>
+          <t>519772</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>交银成长混合H</t>
+          <t>交银新生活力灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>23.39</t>
+          <t>56.88</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>82.72</t>
+          <t>80.57</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.76</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.0490</t>
+          <t>1.9567</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -3827,36 +5244,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>519772</t>
+          <t>519694</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>交银新生活力灵活配置混合</t>
+          <t>交银蓝筹混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>54.07</t>
+          <t>17.29</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>86.33</t>
+          <t>86.74</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.17</t>
+          <t>8.44</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.7140</t>
+          <t>1.4593</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -3865,36 +5282,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>519694</t>
+          <t>010094</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>交银蓝筹混合</t>
+          <t>交银施罗德产业机遇混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>16.14</t>
+          <t>19.57</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>82.45</t>
+          <t>87.89</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>8.76</t>
+          <t>6.84</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.4139</t>
+          <t>1.3386</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -3913,26 +5330,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>19.72</t>
+          <t>18.26</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>86.28</t>
+          <t>88.28</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.14</t>
+          <t>7.16</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.2108</t>
+          <t>1.3074</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -3941,36 +5358,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010094</t>
+          <t>519732</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>交银施罗德产业机遇混合</t>
+          <t>交银定期支付双息平衡混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>18.53</t>
+          <t>42.91</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>85.59</t>
+          <t>64.07</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>6.29</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.1655</t>
+          <t>0.8668</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -3979,36 +5396,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>519732</t>
+          <t>010654</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>交银定期支付双息平衡混合</t>
+          <t>天弘医药创新混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>40.83</t>
+          <t>12.09</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>67.67</t>
+          <t>90.26</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>6.19</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.8411</t>
+          <t>0.7484</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -4017,36 +5434,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010654</t>
+          <t>001387</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>天弘医药创新混合A</t>
+          <t>中融新经济灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>11.86</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>87.22</t>
+          <t>89.35</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>6.68</t>
+          <t>4.67</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.7922</t>
+          <t>0.2237</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -4055,36 +5472,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>501093</t>
+          <t>010655</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华夏翔阳两年定期开放混合</t>
+          <t>天弘医药创新混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>7.35</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>78.10</t>
+          <t>90.26</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>6.19</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.3249</t>
+          <t>0.2216</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -4093,36 +5510,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>010655</t>
+          <t>168207</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>天弘医药创新混合C</t>
+          <t>中融创业板两年定期开放混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>87.22</t>
+          <t>89.66</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>6.68</t>
+          <t>5.06</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.2351</t>
+          <t>0.2090</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -4131,36 +5548,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>168207</t>
+          <t>004905</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中融创业板两年定期开放混合</t>
+          <t>华泰柏瑞生物医药灵活配置混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>5.53</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>88.46</t>
+          <t>91.35</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>5.26</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.2025</t>
+          <t>0.1991</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -4169,36 +5586,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>001387</t>
+          <t>005805</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中融新经济灵活配置混合A</t>
+          <t>华泰柏瑞医疗健康混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>5.27</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>93.13</t>
+          <t>93.81</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>5.12</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.1715</t>
+          <t>0.1834</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -4207,36 +5624,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>004905</t>
+          <t>001701</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>华泰柏瑞生物医药灵活配置混合A</t>
+          <t>中融产业升级灵活配置混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>5.73</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>87.55</t>
+          <t>91.74</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.1581</t>
+          <t>0.1676</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -4245,36 +5662,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>001701</t>
+          <t>010697</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中融产业升级灵活配置混合</t>
+          <t>中融行业先锋6个月持有期混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>92.91</t>
+          <t>84.56</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>5.23</t>
+          <t>4.83</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.1485</t>
+          <t>0.0932</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -4283,36 +5700,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>005805</t>
+          <t>013916</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华泰柏瑞医疗健康混合A</t>
+          <t>中融成长先锋一年持有混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4.88</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>88.16</t>
+          <t>86.89</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.1371</t>
+          <t>0.0794</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -4321,36 +5738,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>004784</t>
+          <t>001388</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>招商稳健优选股票</t>
+          <t>中融新经济灵活配置混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4.90</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>85.49</t>
+          <t>89.35</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>4.67</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.1328</t>
+          <t>0.0658</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -4359,36 +5776,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>010697</t>
+          <t>002189</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>中融行业先锋6个月持有期混合A</t>
+          <t>农银汇理国企改革灵活配置混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>89.23</t>
+          <t>86.59</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>5.05</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0904</t>
+          <t>0.0364</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -4397,36 +5814,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>001388</t>
+          <t>006240</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>中融新经济灵活配置混合C</t>
+          <t>中融医疗健康精选混合A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>93.13</t>
+          <t>84.23</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>5.12</t>
+          <t>5.55</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0369</t>
+          <t>0.0211</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -4435,36 +5852,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>010613</t>
+          <t>006241</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>中融产业趋势一年定期开放混合A</t>
+          <t>中融医疗健康精选混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>87.17</t>
+          <t>84.23</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>5.55</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0302</t>
+          <t>0.0183</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -4473,36 +5890,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>007775</t>
+          <t>011453</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>汇安量化先锋混合A</t>
+          <t>华泰柏瑞医疗健康混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>93.81</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0116</t>
+          <t>0.0174</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -4511,36 +5928,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>006240</t>
+          <t>007775</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>中融医疗健康精选混合A</t>
+          <t>汇安量化先锋混合A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>94.05</t>
+          <t>94.55</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0070</t>
+          <t>0.0144</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -4549,36 +5966,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>010031</t>
+          <t>960016</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>华泰柏瑞生物医药灵活配置混合C</t>
+          <t>交银成长混合H</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>87.55</t>
+          <t>85.49</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>8.36</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0069</t>
+          <t>0.0142</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -4587,36 +6004,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>010614</t>
+          <t>014549</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>中融产业趋势一年定期开放混合C</t>
+          <t>交银施罗德数据产业灵活配置混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>87.17</t>
+          <t>88.28</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>7.16</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0048</t>
+          <t>0.0115</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -4625,36 +6042,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>010698</t>
+          <t>010031</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>中融行业先锋6个月持有期混合C</t>
+          <t>华泰柏瑞生物医药灵活配置混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>89.23</t>
+          <t>91.35</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>5.05</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0045</t>
+          <t>0.0090</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -4663,36 +6080,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>006241</t>
+          <t>010698</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>中融医疗健康精选混合C</t>
+          <t>中融行业先锋6个月持有期混合C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>94.05</t>
+          <t>84.56</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>4.83</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0040</t>
+          <t>0.0043</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
@@ -4701,36 +6118,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>011453</t>
+          <t>007776</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>华泰柏瑞医疗健康混合C</t>
+          <t>汇安量化先锋混合C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>88.16</t>
+          <t>94.55</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.0039</t>
+          <t>0.0042</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
@@ -4739,36 +6156,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>007776</t>
+          <t>013917</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>汇安量化先锋混合C</t>
+          <t>中融成长先锋一年持有混合C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>86.89</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.0033</t>
+          <t>0.0026</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -4777,6 +6194,1088 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519692</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0490</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>960016</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银成长混合H</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0490</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519772</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银新生活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>54.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7140</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519694</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4139</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519773</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银施罗德数据产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2108</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010094</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银施罗德产业机遇混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18.53</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1655</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519732</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银定期支付双息平衡混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>40.83</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>67.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8411</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010654</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘医药创新混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.86</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7922</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501093</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏翔阳两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>78.10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3249</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010655</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘医药创新混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2351</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>168207</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中融创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2025</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001387</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1715</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004905</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰柏瑞生物医药灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1581</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001701</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中融产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1485</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005805</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1371</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004784</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商稳健优选股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1328</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010697</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0904</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001388</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010613</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007775</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006240</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010031</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华泰柏瑞生物医药灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010614</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010698</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006241</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011453</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007776</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5782,7 +8281,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6444,7 +8943,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
